--- a/Civilworks cost/RADP Preparations/Graphs.xlsx
+++ b/Civilworks cost/RADP Preparations/Graphs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -177,6 +177,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFEDB3"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -444,6 +449,9 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-F4B4-4A6D-8C99-EE0BD54F01CC}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1378,6 +1386,296 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.5914931948745122E-3"/>
+                  <c:y val="-8.5669799443545011E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-9E04-4ABA-8B7F-03517A01E860}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.0973880213138136E-17"/>
+                  <c:y val="-0.17912776247286663"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-9E04-4ABA-8B7F-03517A01E860}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.788657593166064E-3"/>
+                  <c:y val="-0.10643823567228312"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-9E04-4ABA-8B7F-03517A01E860}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.5914931948745148E-3"/>
+                  <c:y val="-0.11682245378665215"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-9E04-4ABA-8B7F-03517A01E860}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.5140452364121605E-2"/>
+                  <c:y val="-0.1817238170014589"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-9E04-4ABA-8B7F-03517A01E860}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.9858219914576127E-3"/>
+                  <c:y val="-8.8265853972137279E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-9E04-4ABA-8B7F-03517A01E860}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.380150788040535E-3"/>
+                  <c:y val="-0.14797510812975948"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-9E04-4ABA-8B7F-03517A01E860}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.1927789896054928E-3"/>
+                  <c:y val="-0.31671865248825692"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-9E04-4ABA-8B7F-03517A01E860}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.7558208341021018E-16"/>
+                  <c:y val="-7.0093472271991294E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-9E04-4ABA-8B7F-03517A01E860}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-7.1829863897490298E-2"/>
+                  <c:y val="-2.379689160837328E-17"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-9E04-4ABA-8B7F-03517A01E860}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFEDB3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="25000"/>
+                    <a:lumOff val="75000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="wedgeRectCallout">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Лист1!$A$3:$A$12</c:f>
@@ -1418,39 +1716,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$C$3:$C$12</c:f>
+              <c:f>Лист1!$D$3:$D$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.29</c:v>
+                  <c:v>0.37</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.43</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.73</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.98</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.57</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.82</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>17.88</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.1100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.49</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.18</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.91</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>7.0000000000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>27.859999999999996</c:v>
+                  <c:v>33.770000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2285,8 +2583,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="3.5285815102328866E-3"/>
-                  <c:y val="-0.22507122507122507"/>
+                  <c:x val="4.8063117848778049E-3"/>
+                  <c:y val="-0.1116303675482489"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -2308,8 +2606,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0"/>
-                  <c:y val="-0.13675213675213677"/>
+                  <c:x val="-1.2015779462194537E-2"/>
+                  <c:y val="-8.82658720148944E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -2331,8 +2629,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="3.5285815102328866E-3"/>
-                  <c:y val="-0.13675213675213677"/>
+                  <c:x val="1.2015779462194085E-3"/>
+                  <c:y val="-3.3748715770400853E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -2354,8 +2652,8 @@
               <c:idx val="3"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="1.1761938367442954E-2"/>
-                  <c:y val="-0.1282051282051283"/>
+                  <c:x val="1.2015779462194481E-2"/>
+                  <c:y val="-0.12980275296308"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -2377,8 +2675,8 @@
               <c:idx val="4"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="6.9395436367913385E-2"/>
-                  <c:y val="-0.31908831908831914"/>
+                  <c:x val="2.403155892438905E-3"/>
+                  <c:y val="-8.3073761896371306E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -2400,8 +2698,8 @@
               <c:idx val="5"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="2.1171489061397233E-2"/>
-                  <c:y val="-0.1737891737891738"/>
+                  <c:x val="1.0814201515975074E-2"/>
+                  <c:y val="-0.1116303675482488"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -2423,8 +2721,8 @@
               <c:idx val="6"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-3.5285815102328866E-3"/>
-                  <c:y val="-5.9829059829059936E-2"/>
+                  <c:x val="-1.2015779462195408E-3"/>
+                  <c:y val="-0.21547256991871291"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -2446,8 +2744,8 @@
               <c:idx val="7"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="3.5712358336580804E-3"/>
-                  <c:y val="-0.2232650058337243"/>
+                  <c:x val="7.2094676773167155E-3"/>
+                  <c:y val="-6.4901376481539999E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -2469,8 +2767,8 @@
               <c:idx val="8"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0"/>
-                  <c:y val="-0.21095604742421478"/>
+                  <c:x val="2.403155892438905E-3"/>
+                  <c:y val="-0.24402917557059051"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -2488,12 +2786,32 @@
                 </c:ext>
               </c:extLst>
             </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-9.2521501858897848E-2"/>
+                  <c:y val="0"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-BDB3-440F-8877-27FACC80368F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="FFC000">
-                  <a:lumMod val="20000"/>
-                  <a:lumOff val="80000"/>
-                </a:srgbClr>
+                <a:srgbClr val="FFEDB3"/>
               </a:solidFill>
               <a:ln>
                 <a:solidFill>
@@ -2512,7 +2830,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="dk1">
                         <a:lumMod val="65000"/>
@@ -2590,39 +2908,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$F$3:$F$12</c:f>
+              <c:f>Лист1!$E$3:$E$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>6.62</c:v>
+                  <c:v>1.42</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.24</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>68.290000000000006</c:v>
+                  <c:v>13.39</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21.4</c:v>
+                  <c:v>5.45</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14.48</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.57</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>23.04</c:v>
+                  <c:v>3.14</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.28</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>145.92000000000002</c:v>
+                  <c:v>23.400000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5909,21 +6227,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U51" sqref="U51"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="U141" sqref="U141"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.6640625" customWidth="1"/>
-    <col min="2" max="2" width="21.5546875" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" customWidth="1"/>
-    <col min="4" max="4" width="21.109375" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" customWidth="1"/>
-    <col min="6" max="6" width="21.88671875" customWidth="1"/>
+    <col min="1" max="1" width="35.7109375" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" customWidth="1"/>
+    <col min="6" max="6" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -5943,7 +6261,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -5963,7 +6281,7 @@
         <v>6.62</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -5983,7 +6301,7 @@
         <v>1.24</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -6003,7 +6321,7 @@
         <v>68.290000000000006</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -6023,7 +6341,7 @@
         <v>21.4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -6043,7 +6361,7 @@
         <v>14.48</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -6063,7 +6381,7 @@
         <v>3.57</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -6083,7 +6401,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -6103,7 +6421,7 @@
         <v>23.04</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>14</v>
       </c>
@@ -6123,7 +6441,7 @@
         <v>1.28</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>5</v>
       </c>
@@ -6140,7 +6458,7 @@
         <v>33.770000000000003</v>
       </c>
       <c r="E12" s="8">
-        <f t="shared" ref="D12:F12" si="0">SUM(E3:E11)</f>
+        <f t="shared" ref="E12:F12" si="0">SUM(E3:E11)</f>
         <v>23.400000000000002</v>
       </c>
       <c r="F12" s="8">
